--- a/data.xlsx
+++ b/data.xlsx
@@ -5,41 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xmap\htdocs\mostafa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Titd_V\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DACD0C3-D854-4ADF-B8A7-688D77D47EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC83FD5-D124-41A8-B92E-C55E986A102D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BC792F2B-8418-4E45-B820-AF1A12EEEE66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC792F2B-8418-4E45-B820-AF1A12EEEE66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>test2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>asd2</t>
   </si>
@@ -48,16 +34,79 @@
   </si>
   <si>
     <t>reason</t>
+  </si>
+  <si>
+    <t>Mwest-1.20220728T170739.SP.00400.MsF08</t>
+  </si>
+  <si>
+    <t>Mwest-1.20220728T170739.SP.00400.MsF09</t>
+  </si>
+  <si>
+    <t>Mwest-1.20220728T170739.SP.00400.MsF011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Mwest-1.20220728T170739.SP.00400.MsF012"</t>
+  </si>
+  <si>
+    <t>Mwest-1.20220728T170739.SP.00400.MsF014</t>
+  </si>
+  <si>
+    <t>Mwest-1.20220728T170739.SP.00400.MsF015</t>
+  </si>
+  <si>
+    <t>Mwest-1.20220728T170739.SP.00400.MsF016</t>
+  </si>
+  <si>
+    <t>Mwest-1.20220728T170739.SP.00400.MsF017</t>
+  </si>
+  <si>
+    <t>Mwest-1.20220728T170739.SP.00400.MsF018</t>
+  </si>
+  <si>
+    <t>Mwest-1.20220728T170739.SP.00400.MsF019</t>
+  </si>
+  <si>
+    <t>asd3</t>
+  </si>
+  <si>
+    <t>asd4</t>
+  </si>
+  <si>
+    <t>asd5</t>
+  </si>
+  <si>
+    <t>asd6</t>
+  </si>
+  <si>
+    <t>asd7</t>
+  </si>
+  <si>
+    <t>asd8</t>
+  </si>
+  <si>
+    <t>asd9</t>
+  </si>
+  <si>
+    <t>asd10</t>
+  </si>
+  <si>
+    <t>asd11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,8 +132,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,31 +451,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5653BAAB-AF83-4E43-8523-BC14E1774C2A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>